--- a/data/trans_dic/P78C9_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C9_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,43%</t>
+          <t>70,36%</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 100,0</t>
+          <t>6,54; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -846,7 +846,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>73,81%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>80,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>22,85; 100</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>12,83; 100,0</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>21,86; 100,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13,78; 100,0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 100,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
